--- a/files/results/finally_results.xlsx
+++ b/files/results/finally_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,430 +453,384 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>воздуховод-400-3000-оц.-0.6-г.г</t>
+          <t>воздуховоды из оцинкованной стали по гост 14918-80:</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>воздуховод-400-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>₽ 7 695</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø100</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>воздуховод-450-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>₽ 8 657</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>воздуховод-500-3000-оц.-0.7-г.г</t>
+          <t>воздуховод круглый ø160</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>воздуховод-500-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>₽ 9 618</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø200</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>воздуховод-400-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>₽ 7 695</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>воздуховод-710-3000-оц.-0.7-г.г</t>
+          <t>воздуховод круглый ø250</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>воздуховод-710-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>₽ 13 658</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø315</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>воздуховод-630-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>₽ 12 119</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>воздуховод-900-3000-оц.-1.0-г.г</t>
+          <t>воздуховод прямоугольный 600х300</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>воздуховод-900-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>₽ 28 232</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø355</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>воздуховод-800-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>₽ 15 389</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>воздуховод-1000-3000-оц.-1.0-г.г</t>
+          <t>воздуховод прямоугольный 700х400</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>воздуховод-1000-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>₽ 31 369</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø125</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>воздуховод-900-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>₽ 28 232</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>воздуховод-1250-3000-оц.-1.0-г.г</t>
+          <t>воздуховод круглый ø400</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>воздуховод-1250-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>₽ 39 211</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>воздуховод круглый ø450</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>воздуховод-1120-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>₽ 35 133</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>воздуховод-500*500-1250-оц.-0.7-ш2.ш2</t>
+          <t>воздуховод прямоугольный 400х200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>воздуховод-500*500-1410-оц.-0.7-т2.т2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5945.07</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 400х400</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>воздуховод-500*500-1410-оц.-0.7-т2.т2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>₽ 6 128</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>воздуховод-200*700-1250-оц.-0.7-ш3.ш3</t>
+          <t>воздуховод прямоугольный 600х400</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>воздуховод-200*700-1390-оц.-0.7-т3.т3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5274.67</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 1000х800</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>воздуховод-200*900-1390-оц.-0.9-т3.т3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>8804.4</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>воздуховод-800-3000-оц.-0.7-г.г</t>
+          <t>воздуховод прямоугольный 600х500</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>воздуховод-800-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>₽ 15 389</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 800х500</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>воздуховод-900-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>₽ 28 232</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>воздуховод-630-3000-оц.-0.7-г.г</t>
+          <t>зонт вентиляционный круглый ø200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>воздуховод-630-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>₽ 12 119</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>зонт вентиляционный круглый ø400</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>воздуховод-560-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>₽ 10 772</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>воздуховод-800*2000-1250-оц.-1.2-ш3.ш3</t>
+          <t>зонт вентиляционный прямоугольный 600х350</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>воздуховод-800*2000-1390-оц.-1.2-т3.т3</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>27750.1</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 600х350</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>воздуховод-600*2000-1390-оц.-1.2-т3.т3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>25767.95</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>воздуховод-125-3000-оц.-0.5-г.г</t>
+          <t>зонт вентиляционный круглый ø250</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>воздуховод-125-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>₽ 1 795</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>воздуховод-560-3000-оц.-0.7-г.г</t>
+          <t>зонт вентиляционный круглый ø160</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>воздуховод-560-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>₽ 10 772</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>зонт вентиляционный круглый ø355</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>воздуховод-630-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>₽ 12 119</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>воздуховод-1120-3000-оц.-1.0-г.г</t>
+          <t>воздуховод прямоугольный 800х600</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>воздуховод-1120-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>₽ 35 133</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>шибер для круглых каналов ø450</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>воздуховод-1250-3000-оц.-1.0-г.г</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>₽ 39 211</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>воздуховод-600*900-1250-оц.-0.9-ш3.ш3</t>
+          <t>зонт вентиляционный круглый ø450</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>воздуховод-600*900-1390-оц.-0.9-т3.т3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>12006</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>зонт вентиляционный круглый ø125</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>воздуховод-600*950-1390-оц.-0.9-т3.т3</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>12406.2</v>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>воздуховод-500*700-700-оц.-0.7-ш3.ш3</t>
+          <t>шибер для круглых каналов ø500</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -889,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>воздуховод-600*900-500-оц.-0.9-ш3.ш3</t>
+          <t>воздуховод круглый ø500</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -902,240 +856,110 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>воздуховод-300*1700-750-оц.-1.2-ш3.ш3</t>
+          <t>зонт вентиляционный прямоуголный 500х400</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>воздуховод-300*1700-1390-оц.-1.2-т3.т3</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>19821.5</v>
+          <t>зонт vo-500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>₽ 9 950</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>воздуховод-300*300-1000-оц.-0.5-ш2.ш2</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>зонт крышный-500-оц.-1.0-н</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>₽ 5 223</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>воздуховод-160-3000-оц.-0.5-г.г</t>
+          <t>зонт вентиляционный круглый ø315</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>воздуховод-160-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>₽ 2 297</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>противопожарная изоляция</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>воздуховод-140-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>₽ 2 010</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>воздуховод-200-3000-оц.-0.5-г.г</t>
+          <t>воздуховоды из листовой стали по гост 19903-74:</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>воздуховод-200-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>₽ 2 872</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 800х600. δ=1мм</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>воздуховод-250-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>₽ 3 590</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>воздуховод-250-3000-оц.-0.5-г.г</t>
+          <t>воздуховод прямоугольный 800х800. δ=1мм</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>воздуховод-250-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>₽ 3 590</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>воздуховод прямоугольный 800х800</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>воздуховод-200-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>₽ 2 872</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>воздуховод-400*500-1000-оц.-0.7-ш2.ш2</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>воздуховод-315-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>воздуховод-315-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>₽ 4 523</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>воздуховод-225-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>₽ 3 231</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>воздуховод-450-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>воздуховод-450-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>₽ 8 657</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>воздуховод-400-3000-оц.-0.7-г.г</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>₽ 7 695</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>воздуховод-100-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>воздуховод-100-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>₽ 1 436</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>воздуховод-315-3000-оц.-0.9-г.г</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>воздуховод-315-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>₽ 4 523</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>воздуховод-225-3000-оц.-0.5-г.г</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>₽ 3 231</t>
-        </is>
-      </c>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/results/finally_results.xlsx
+++ b/files/results/finally_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,33 +453,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>воздуховоды из оцинкованной стали по гост 14918-80:</t>
+          <t>воздуховод спирально-навивной ф900/3000/0.7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>воздуховод-800-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21100.17</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>воздуховод круглый ø100</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>воздуховод-700-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18279.84</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø160</t>
+          <t>воздуховод спирально-навивной ф900/1000/0.7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,98 +492,100 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø200</t>
+          <t>воздуховод спирально-навивной ф800/3000/0.7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>воздуховод-800-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21100.17</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>воздуховод круглый ø250</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>воздуховод-600-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15459.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø315</t>
+          <t>воздуховод спирально-навивной ф710/3000/0.7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>воздуховод-700-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18279.84</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>воздуховод прямоугольный 600х300</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>воздуховод-600-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15459.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø355</t>
+          <t>воздуховод спирально-навивной ф630/3000/0.7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>воздуховод-600-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15459.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 700х400</t>
+          <t>воздуховод спирально-навивной ф560/3000/0.7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>воздуховод-560-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14331.37</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>воздуховод круглый ø125</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>воздуховод-600-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15459.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø400</t>
+          <t>воздуховод спирально-навивной ф560/2000/0.7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -596,33 +598,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø450</t>
+          <t>воздуховод спирально-навивной ф400/3000/0.7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>воздуховод-400-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9818.83</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>воздуховод прямоугольный 400х200</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>воздуховод-360-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8690.700000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 400х400</t>
+          <t>воздуховод спирально-навивной ф400/2000/0.7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -635,7 +637,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 600х400</t>
+          <t>воздуховод спирально-навивной ф200/3000/0.45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -648,7 +650,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 1000х800</t>
+          <t>воздуховод спирально-навивной ф200/1000/0.45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -661,7 +663,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 600х500</t>
+          <t>воздуховод спирально-навивной ф140/3000/0.45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -674,7 +676,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 800х500</t>
+          <t>воздуховод спирально-навивной ф125/3000/0.45</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -687,7 +689,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø200</t>
+          <t>воздуховод спирально-навивной ф125/2000/0.45</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -700,7 +702,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø400</t>
+          <t>воздуховод спирально-навивной ф100/3000/0.45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -713,7 +715,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>зонт вентиляционный прямоугольный 600х350</t>
+          <t>воздуховод спирально-навивной ф100/2000/0.45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -726,7 +728,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 600х350</t>
+          <t>отвод 90 є ф900/1.0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -739,7 +741,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø250</t>
+          <t>отвод 45 є ф900/1.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -752,7 +754,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø160</t>
+          <t>отвод 90 є ф560/0.7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -765,7 +767,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø355</t>
+          <t>отвод 90 є ф400/0.7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -778,7 +780,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 800х600</t>
+          <t>отвод 90 є ф200/0.5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -791,7 +793,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>шибер для круглых каналов ø450</t>
+          <t>отвод 90 є ф125/0.5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -804,7 +806,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø450</t>
+          <t>отвод 90 є ф100/0.5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -817,33 +819,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø125</t>
+          <t>воздуховод спирально-навивной ф500/3000/0.7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>воздуховод-500-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>12639.17</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>шибер для круглых каналов ø500</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>воздуховод-360-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8690.700000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>воздуховод круглый ø500</t>
+          <t>воздуховод спирально-навивной ф500/1000/0.7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -856,37 +858,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>зонт вентиляционный прямоуголный 500х400</t>
+          <t>воздуховод спирально-навивной ф450/3000/0.7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>зонт vo-500</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>₽ 9 950</t>
-        </is>
+          <t>воздуховод-450-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>11229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>зонт крышный-500-оц.-1.0-н</t>
+          <t>воздуховод-450-3000-оц.-0.7-г.г</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>₽ 5 223</t>
+          <t>₽ 8 657</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>зонт вентиляционный круглый ø315</t>
+          <t>воздуховод спирально-навивной ф450/1000/0.7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -899,33 +899,33 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>противопожарная изоляция</t>
+          <t>воздуховод спирально-навивной ф315/3000/0.7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>воздуховод-325-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6753.75</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>воздуховоды из листовой стали по гост 19903-74:</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>воздуховод-265-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5642.72</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 800х600. δ=1мм</t>
+          <t>воздуховод спирально-навивной ф315/1000/0.7</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -938,20 +938,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 800х800. δ=1мм</t>
+          <t>воздуховод спирально-навивной ф200/3000/1.0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>не найден</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>воздуховод-200-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4295.56</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>воздуховод прямоугольный 800х800</t>
+          <t>воздуховод спирально-навивной ф200/1000/1.0</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -960,6 +962,783 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф160/3000/1.0</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>воздуховод-160-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3466.53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф100/1000/0.45</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф500/0.7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф315/0.5</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>отвод 45 є ф315/0.5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф200/1.0</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф160/1.0</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф500/2000/0.7</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>воздуховод с интегрированным фланцем. сварной. грунт . 500*400/1120/1.5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>воздуховод с интегрированным фланцем. сварной. грунт . 500*400/1040/1.5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>воздуховод ф500/1250/1.5</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>воздуховод ф500/500/1.5</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>воздуховод ф400/500/1.5</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>воздуховод ф630/1250/1.5</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф500/1.5</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>отвод 45 є ф500/1.5</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>воздуховод синтегрированным фланцем. сварной. грунт. 500*400/780/1.5</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>воздуховод ф 500/1250/1.5</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>воздуховод ф500/250/1.5</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>воздуховод ф 450/500/1.5</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>отвод 90єф315/0.7</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>отвод 45 є ф315/0.7</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>отвод 90єф500/1.5</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>отвод 45єф500/1.5</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф250/3000/0.7</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>воздуховод-250-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5331.84</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>воздуховод-260-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5539.09</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф250/1000/0.7</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф225/3000/0.7</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>воздуховод-225-3000-оц.-0.5-ф.ф</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4813.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф160/3000/0.45</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф160/1000/0.45</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>воздуховод ф250/1250/1.5</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>воздуховод ф250/1000/1.5</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф250/0.7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф160/0.5</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф250/1.5</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>зонт вытяжнойостровнойф280/600*600/0.7</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф315/2000/0.7</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>воздуховод ф 280/1500/0.7</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>воздуховод ф 280/500/0.7</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф160/2000/0.45</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>воздуховод ф 500/750/1.5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф315/0.7</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф280/0.7</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>воздуховод ф280/1500/0.7</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>воздуховод ф 280/1000/0.7</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>воздуховод ф 500/1250/1.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>воздуховод-500*1250-1390-оц.-1-т3.т3</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>15125.28</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>воздуховод-500*1350-1390-оц.-1-т3.т3</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>15989.59</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>воздуховод ф 400/1000/1.5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>отвод 90 є ф450/0.7</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф500/3000/1.0</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф315/1500/1.0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф400/3000/1.0</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>воздуховод-400-3000-оц.-0.7-ф.ф</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>9818.83</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>воздуховод спирально-навивной ф200/1500/1.0</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>воздуховод 200*200/1500/0.5</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>₽ 1 857</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1802.29</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>отвод 90 є 200*200/0.5</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>воздуховод 200*200/1500/1.0</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1802.29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>₽ 1 857</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>зонт прямоугольный 200*200/0.5</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>не найден</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/results/finally_results.xlsx
+++ b/files/results/finally_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>цена</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>количество</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>полная стоимость</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,7 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21100.17</v>
+        <v>21100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>105500</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18279.84</v>
+        <v>18279</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>91395</v>
       </c>
     </row>
     <row r="4">
@@ -488,6 +510,8 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,7 +525,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21100.17</v>
+        <v>21100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42200</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15459.5</v>
+        <v>15459</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30918</v>
       </c>
     </row>
     <row r="7">
@@ -527,7 +563,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18279.84</v>
+        <v>18279</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36558</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15459.5</v>
+        <v>15459</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30918</v>
       </c>
     </row>
     <row r="9">
@@ -553,7 +601,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15459.5</v>
+        <v>15459</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30918</v>
       </c>
     </row>
     <row r="10">
@@ -568,7 +622,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14331.37</v>
+        <v>14331</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28662</v>
       </c>
     </row>
     <row r="11">
@@ -579,7 +639,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15459.5</v>
+        <v>15459</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30918</v>
       </c>
     </row>
     <row r="12">
@@ -594,6 +660,8 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -607,7 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9818.83</v>
+        <v>9818</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58908</v>
       </c>
     </row>
     <row r="14">
@@ -618,7 +692,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8690.700000000001</v>
+        <v>8690</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>52140</v>
       </c>
     </row>
     <row r="15">
@@ -633,6 +713,8 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -646,6 +728,8 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -659,6 +743,8 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -672,6 +758,8 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -685,6 +773,8 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -698,6 +788,8 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -711,6 +803,8 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -724,6 +818,8 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -737,6 +833,8 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -750,6 +848,8 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -763,6 +863,8 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -776,6 +878,8 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -789,6 +893,8 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -802,6 +908,8 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -815,6 +923,8 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -828,7 +938,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>12639.17</v>
+        <v>12639</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63195</v>
       </c>
     </row>
     <row r="31">
@@ -839,7 +955,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8690.700000000001</v>
+        <v>8690</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>43450</v>
       </c>
     </row>
     <row r="32">
@@ -854,6 +976,8 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -868,6 +992,12 @@
       </c>
       <c r="C33" t="n">
         <v>11229</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22458</v>
       </c>
     </row>
     <row r="34">
@@ -877,10 +1007,14 @@
           <t>воздуховод-450-3000-оц.-0.7-г.г</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>₽ 8 657</t>
-        </is>
+      <c r="C34" t="n">
+        <v>8657</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>17314</v>
       </c>
     </row>
     <row r="35">
@@ -895,6 +1029,8 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -908,7 +1044,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6753.75</v>
+        <v>6753</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54024</v>
       </c>
     </row>
     <row r="37">
@@ -919,7 +1061,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5642.72</v>
+        <v>5642</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>45136</v>
       </c>
     </row>
     <row r="38">
@@ -934,6 +1082,8 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -947,7 +1097,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4295.56</v>
+        <v>4295</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8590</v>
       </c>
     </row>
     <row r="40">
@@ -962,6 +1118,8 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -975,7 +1133,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3466.53</v>
+        <v>3466</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>20796</v>
       </c>
     </row>
     <row r="42">
@@ -990,6 +1154,8 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1003,6 +1169,8 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1016,6 +1184,8 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1029,6 +1199,8 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1042,6 +1214,8 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1055,6 +1229,8 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1068,6 +1244,8 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1081,6 +1259,8 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1094,6 +1274,8 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1107,6 +1289,8 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1120,6 +1304,8 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1133,6 +1319,8 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1146,6 +1334,8 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1159,6 +1349,8 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1172,6 +1364,8 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1185,6 +1379,8 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1198,6 +1394,8 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1211,6 +1409,8 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1224,6 +1424,8 @@
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1237,6 +1439,8 @@
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1250,6 +1454,8 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1263,6 +1469,8 @@
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1276,6 +1484,8 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1289,7 +1499,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5331.84</v>
+        <v>5331</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>21324</v>
       </c>
     </row>
     <row r="66">
@@ -1300,7 +1516,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5539.09</v>
+        <v>5539</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" t="n">
+        <v>22156</v>
       </c>
     </row>
     <row r="67">
@@ -1315,6 +1537,8 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1328,7 +1552,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4813.7</v>
+        <v>4813</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4813</v>
       </c>
     </row>
     <row r="69">
@@ -1343,6 +1573,8 @@
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1356,6 +1588,8 @@
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1369,6 +1603,8 @@
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1382,6 +1618,8 @@
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1395,6 +1633,8 @@
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1408,6 +1648,8 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1421,6 +1663,8 @@
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1434,6 +1678,8 @@
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1447,6 +1693,8 @@
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1460,6 +1708,8 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1473,6 +1723,8 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1486,6 +1738,8 @@
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1499,6 +1753,8 @@
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1512,6 +1768,8 @@
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1525,6 +1783,8 @@
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1538,6 +1798,8 @@
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1551,6 +1813,8 @@
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1564,7 +1828,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15125.28</v>
+        <v>15125</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>121000</v>
       </c>
     </row>
     <row r="87">
@@ -1575,7 +1845,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15989.59</v>
+        <v>15989</v>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>127912</v>
       </c>
     </row>
     <row r="88">
@@ -1590,6 +1866,8 @@
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1603,6 +1881,8 @@
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1616,6 +1896,8 @@
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1629,6 +1911,8 @@
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1642,7 +1926,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9818.83</v>
+        <v>9818</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9818</v>
       </c>
     </row>
     <row r="93">
@@ -1657,6 +1947,8 @@
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1669,10 +1961,14 @@
           <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>₽ 1 857</t>
-        </is>
+      <c r="C94" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1857</v>
       </c>
     </row>
     <row r="95">
@@ -1683,7 +1979,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1802.29</v>
+        <v>1802</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1802</v>
       </c>
     </row>
     <row r="96">
@@ -1698,6 +2000,8 @@
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1711,7 +2015,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1802.29</v>
+        <v>1802</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1802</v>
       </c>
     </row>
     <row r="98">
@@ -1721,10 +2031,14 @@
           <t>воздуховод-200*200-1410-оц.-0.5-т2.т2</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>₽ 1 857</t>
-        </is>
+      <c r="C98" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1857</v>
       </c>
     </row>
     <row r="99">
@@ -1739,6 +2053,8 @@
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
